--- a/DbLayouts/XX-系統/TxRecord.xlsx
+++ b/DbLayouts/XX-系統/TxRecord.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="143">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -997,6 +997,22 @@
   </si>
   <si>
     <t>Entdy &gt;= ,AND Entdy &lt;= ,AND BrNo = ,AND TxResult = ,AND Hcode = ,AND TlrNo % ,AND TranNo %</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:查詢結清五年後客戶資料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImportFg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易重要註記</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1161,7 +1177,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1281,6 +1297,9 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1587,10 +1606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1598,7 +1617,7 @@
     <col min="1" max="1" width="5.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.77734375" style="2" customWidth="1"/>
     <col min="3" max="3" width="53.21875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="24" customWidth="1"/>
     <col min="5" max="5" width="6.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="51.77734375" style="14" customWidth="1"/>
@@ -2370,7 +2389,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
-        <f t="shared" ref="A41:A46" si="1">A40+1</f>
+        <f t="shared" ref="A41:A47" si="1">A40+1</f>
         <v>33</v>
       </c>
       <c r="B41" s="23" t="s">
@@ -2410,21 +2429,27 @@
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B43" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>76</v>
+      <c r="B43" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>142</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E43" s="10"/>
+        <v>26</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F43" s="10"/>
+      <c r="G43" s="40" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
@@ -2432,17 +2457,15 @@
         <v>36</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E44" s="10">
-        <v>6</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E44" s="10"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
@@ -2450,15 +2473,17 @@
         <v>37</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E45" s="10"/>
+        <v>80</v>
+      </c>
+      <c r="E45" s="10">
+        <v>6</v>
+      </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
@@ -2466,15 +2491,31 @@
         <v>38</v>
       </c>
       <c r="B46" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" s="10"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="8">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B47" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C47" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D47" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E47" s="10">
         <v>6</v>
       </c>
     </row>
@@ -2498,7 +2539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
